--- a/Documents/Burndown Chart Template V1.0.xlsx
+++ b/Documents/Burndown Chart Template V1.0.xlsx
@@ -292,10 +292,10 @@
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
             <c:numRef>
               <c:f>'Sheet1'!$C$2:$C$17</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>240.000000</c:v>
                 </c:pt>
@@ -704,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>193.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,16 +918,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>274991</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7316083</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139941</xdr:rowOff>
+      <xdr:colOff>1732491</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189605</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -932,8 +935,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5583591" y="1225150"/>
-        <a:ext cx="7041093" cy="4444372"/>
+        <a:off x="0" y="4075164"/>
+        <a:ext cx="7041092" cy="4444372"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2065,7 +2068,9 @@
       <c r="B5" s="12">
         <v>192</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="12">
+        <v>180</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -2077,7 +2082,7 @@
       <c r="B6" s="8">
         <v>176</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2089,7 +2094,7 @@
       <c r="B7" s="12">
         <v>160</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2101,7 +2106,7 @@
       <c r="B8" s="8">
         <v>144</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="9"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2113,7 +2118,7 @@
       <c r="B9" s="12">
         <v>128</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="9"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2125,7 +2130,7 @@
       <c r="B10" s="8">
         <v>112</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="9"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2137,7 +2142,7 @@
       <c r="B11" s="12">
         <v>96</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="9"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2149,7 +2154,7 @@
       <c r="B12" s="8">
         <v>80</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="9"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2161,7 +2166,7 @@
       <c r="B13" s="12">
         <v>64</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="9"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2173,7 +2178,7 @@
       <c r="B14" s="8">
         <v>48</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="9"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2185,7 +2190,7 @@
       <c r="B15" s="12">
         <v>32</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="9"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2197,7 +2202,7 @@
       <c r="B16" s="8">
         <v>16</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2209,7 +2214,7 @@
       <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="9"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>

--- a/Documents/Burndown Chart Template V1.0.xlsx
+++ b/Documents/Burndown Chart Template V1.0.xlsx
@@ -292,10 +292,10 @@
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -695,7 +695,7 @@
             <c:numRef>
               <c:f>'Sheet1'!$C$2:$C$17</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>240.000000</c:v>
                 </c:pt>
@@ -707,6 +707,21 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +2097,9 @@
       <c r="B6" s="8">
         <v>176</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="8">
+        <v>170</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2094,7 +2111,9 @@
       <c r="B7" s="12">
         <v>160</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="12">
+        <v>155</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2106,7 +2125,9 @@
       <c r="B8" s="8">
         <v>144</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="8">
+        <v>143</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2118,7 +2139,9 @@
       <c r="B9" s="12">
         <v>128</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="12">
+        <v>120</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2130,7 +2153,9 @@
       <c r="B10" s="8">
         <v>112</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="8">
+        <v>96</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2142,7 +2167,7 @@
       <c r="B11" s="12">
         <v>96</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="9"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2154,7 +2179,7 @@
       <c r="B12" s="8">
         <v>80</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="9"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2166,7 +2191,7 @@
       <c r="B13" s="12">
         <v>64</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="9"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2178,7 +2203,7 @@
       <c r="B14" s="8">
         <v>48</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="9"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2190,7 +2215,7 @@
       <c r="B15" s="12">
         <v>32</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="9"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2202,7 +2227,7 @@
       <c r="B16" s="8">
         <v>16</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2214,7 +2239,7 @@
       <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="9"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
